--- a/Excel/Task_3/Solution_3.xlsx
+++ b/Excel/Task_3/Solution_3.xlsx
@@ -8,16 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VikhlyantsevAA\Desktop\Portfolio_Analytics\Excel\Task_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D799A0-B427-4BBB-99F5-E89CC948636C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A346E8-8A9F-4999-A351-AB54DEF68EFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{95BD26DB-8FE2-4B63-ADB8-8706C0E7D3C3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{95BD26DB-8FE2-4B63-ADB8-8706C0E7D3C3}"/>
   </bookViews>
   <sheets>
     <sheet name="ТЕНДЕНЦИЯ" sheetId="2" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1944,375 +1941,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="ТЕНДЕНЦИЯ"/>
-      <sheetName val="РОСТ"/>
-      <sheetName val="ПРОГНОЗ С СЕЗОННОСТЬЮ"/>
-      <sheetName val="ЗАДАНИЕ6"/>
-      <sheetName val="Лист1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="13">
-          <cell r="C13" t="str">
-            <v>Количество конкурентов</v>
-          </cell>
-          <cell r="D13" t="str">
-            <v>Реклама</v>
-          </cell>
-          <cell r="E13" t="str">
-            <v>Прибыль</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="B14">
-            <v>44562</v>
-          </cell>
-          <cell r="C14">
-            <v>2</v>
-          </cell>
-          <cell r="D14">
-            <v>44600</v>
-          </cell>
-          <cell r="E14">
-            <v>145428</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="B15">
-            <v>44593</v>
-          </cell>
-          <cell r="C15">
-            <v>2</v>
-          </cell>
-          <cell r="D15">
-            <v>33190</v>
-          </cell>
-          <cell r="E15">
-            <v>150948</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="B16">
-            <v>44621</v>
-          </cell>
-          <cell r="C16">
-            <v>2</v>
-          </cell>
-          <cell r="D16">
-            <v>49790</v>
-          </cell>
-          <cell r="E16">
-            <v>186000</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="B17">
-            <v>44652</v>
-          </cell>
-          <cell r="C17">
-            <v>3</v>
-          </cell>
-          <cell r="D17">
-            <v>87870</v>
-          </cell>
-          <cell r="E17">
-            <v>241200</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18">
-            <v>44682</v>
-          </cell>
-          <cell r="C18">
-            <v>3</v>
-          </cell>
-          <cell r="D18">
-            <v>85050</v>
-          </cell>
-          <cell r="E18">
-            <v>208320</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="B19">
-            <v>44713</v>
-          </cell>
-          <cell r="C19">
-            <v>3</v>
-          </cell>
-          <cell r="D19">
-            <v>74300</v>
-          </cell>
-          <cell r="E19">
-            <v>238680</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="B20">
-            <v>44743</v>
-          </cell>
-          <cell r="C20">
-            <v>3</v>
-          </cell>
-          <cell r="D20">
-            <v>99170</v>
-          </cell>
-          <cell r="E20">
-            <v>255600</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="B21">
-            <v>44774</v>
-          </cell>
-          <cell r="C21">
-            <v>4</v>
-          </cell>
-          <cell r="D21">
-            <v>81730</v>
-          </cell>
-          <cell r="E21">
-            <v>230268</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22">
-            <v>44805</v>
-          </cell>
-          <cell r="C22">
-            <v>4</v>
-          </cell>
-          <cell r="D22">
-            <v>97540</v>
-          </cell>
-          <cell r="E22">
-            <v>222480</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="B23">
-            <v>44835</v>
-          </cell>
-          <cell r="C23">
-            <v>5</v>
-          </cell>
-          <cell r="D23">
-            <v>74590</v>
-          </cell>
-          <cell r="E23">
-            <v>261900</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="B24">
-            <v>44866</v>
-          </cell>
-          <cell r="C24">
-            <v>5</v>
-          </cell>
-          <cell r="D24">
-            <v>85030</v>
-          </cell>
-          <cell r="E24">
-            <v>241956</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="B25">
-            <v>44896</v>
-          </cell>
-          <cell r="C25">
-            <v>5</v>
-          </cell>
-          <cell r="D25">
-            <v>58000</v>
-          </cell>
-          <cell r="E25">
-            <v>287388</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="B26">
-            <v>44927</v>
-          </cell>
-          <cell r="C26">
-            <v>6</v>
-          </cell>
-          <cell r="D26">
-            <v>64500</v>
-          </cell>
-          <cell r="E26">
-            <v>294960</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="B27">
-            <v>44958</v>
-          </cell>
-          <cell r="C27">
-            <v>6</v>
-          </cell>
-          <cell r="D27">
-            <v>42000</v>
-          </cell>
-          <cell r="E27">
-            <v>258000</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="B28">
-            <v>44986</v>
-          </cell>
-          <cell r="C28">
-            <v>6</v>
-          </cell>
-          <cell r="D28">
-            <v>43390</v>
-          </cell>
-          <cell r="E28">
-            <v>289200</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="B29">
-            <v>45017</v>
-          </cell>
-          <cell r="C29">
-            <v>6</v>
-          </cell>
-          <cell r="D29">
-            <v>41420</v>
-          </cell>
-          <cell r="E29">
-            <v>265788</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="B30">
-            <v>45047</v>
-          </cell>
-          <cell r="C30">
-            <v>7</v>
-          </cell>
-          <cell r="D30">
-            <v>48000</v>
-          </cell>
-          <cell r="E30">
-            <v>280644</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="B31">
-            <v>45078</v>
-          </cell>
-          <cell r="C31">
-            <v>7</v>
-          </cell>
-          <cell r="D31">
-            <v>65000</v>
-          </cell>
-          <cell r="E31">
-            <v>336000</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="B32">
-            <v>45108</v>
-          </cell>
-          <cell r="C32">
-            <v>8</v>
-          </cell>
-          <cell r="D32">
-            <v>45000</v>
-          </cell>
-          <cell r="E32">
-            <v>307476</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="B33">
-            <v>45139</v>
-          </cell>
-          <cell r="C33">
-            <v>8</v>
-          </cell>
-          <cell r="D33">
-            <v>36100</v>
-          </cell>
-          <cell r="E33">
-            <v>277488</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="B34">
-            <v>45170</v>
-          </cell>
-          <cell r="C34">
-            <v>8</v>
-          </cell>
-          <cell r="D34">
-            <v>51000</v>
-          </cell>
-          <cell r="E34">
-            <v>334140</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="B35">
-            <v>45200</v>
-          </cell>
-          <cell r="C35">
-            <v>9</v>
-          </cell>
-          <cell r="D35">
-            <v>70000</v>
-          </cell>
-          <cell r="E35">
-            <v>347926.86422604881</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="B36">
-            <v>45231</v>
-          </cell>
-          <cell r="C36">
-            <v>9</v>
-          </cell>
-          <cell r="D36">
-            <v>45000</v>
-          </cell>
-          <cell r="E36">
-            <v>338513.55181096122</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="B37">
-            <v>45261</v>
-          </cell>
-          <cell r="C37">
-            <v>10</v>
-          </cell>
-          <cell r="D37">
-            <v>80000</v>
-          </cell>
-          <cell r="E37">
-            <v>371171.33925298229</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
@@ -2615,8 +2243,8 @@
   </sheetPr>
   <dimension ref="B1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V16" sqref="V16"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W28" sqref="W28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
